--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/59.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/59.xlsx
@@ -479,13 +479,13 @@
         <v>-7.175496219893344</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.751055040882896</v>
+        <v>-8.838406885442893</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.039472464665691</v>
+        <v>-3.017215549834757</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.466602119281919</v>
+        <v>-5.489840956825984</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.765697871499573</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.004312547053246</v>
+        <v>-9.096691835904466</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.126654109288745</v>
+        <v>-3.098204535213674</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.402043973969368</v>
+        <v>-5.431226717003576</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.41066681359837</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.818797799139867</v>
+        <v>-9.907066104898783</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.010224260117275</v>
+        <v>-2.983149377840586</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.270283038170238</v>
+        <v>-5.29472636757574</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.14883739956043</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.58310025443415</v>
+        <v>-10.66800383836275</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.915776387417063</v>
+        <v>-2.887130428799366</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.484420743449509</v>
+        <v>-5.514965085979256</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.961143844030356</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.36111035080372</v>
+        <v>-11.44407627391174</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.766943088712321</v>
+        <v>-2.741111975205595</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.037907755032442</v>
+        <v>-5.069263820338375</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.828035132619057</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.02034707579316</v>
+        <v>-12.09966024640833</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.736712961450776</v>
+        <v>-2.712099432108331</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.17003527531114</v>
+        <v>-5.193889451088766</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.732638105153681</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.52081344422098</v>
+        <v>-12.60381864423752</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.614574868240313</v>
+        <v>-2.587303601420998</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.72903414639044</v>
+        <v>-4.752338445448713</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.65860851838116</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.49062577722183</v>
+        <v>-13.56593270316744</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.365127222196906</v>
+        <v>-2.343092876514282</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.638684164479688</v>
+        <v>-4.657851295839976</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.578857604960683</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.23377107112389</v>
+        <v>-14.30754619763702</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.344742506672339</v>
+        <v>-2.326792959476332</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.253364599544849</v>
+        <v>-4.258719351407114</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.48983900273698</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.93187884325041</v>
+        <v>-15.00566706206637</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.167302526258426</v>
+        <v>-2.147323672121952</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.041963185559498</v>
+        <v>-4.049242505939497</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.383812406127997</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.59197966022739</v>
+        <v>-15.66479904863307</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.158412852628893</v>
+        <v>-2.144299350165513</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.525602761481822</v>
+        <v>-3.535867126909735</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.255104558703867</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.56069223978955</v>
+        <v>-16.63107645986667</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.990137484204188</v>
+        <v>-1.973065121298577</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.887431551764726</v>
+        <v>-2.899057516688179</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.11995218739859</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.1941109435751</v>
+        <v>-17.25776571999157</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.715199124527941</v>
+        <v>-1.70404448250679</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.512009767778231</v>
+        <v>-2.512428721469167</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.986093777561313</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.09661574766664</v>
+        <v>-18.15842450938243</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.548010417239099</v>
+        <v>-1.536057144744603</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.919923464064011</v>
+        <v>-1.92188730949027</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.865432687817296</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.00887431737527</v>
+        <v>-19.06835264918523</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.388284322570041</v>
+        <v>-1.382379693988423</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.548795955409602</v>
+        <v>-1.537183082788991</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.780007236480104</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.79428156485042</v>
+        <v>-19.84958345205387</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.150384087633036</v>
+        <v>-1.15154930258595</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.018047090508869</v>
+        <v>-1.006538956310992</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.736644745123036</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.77785390813793</v>
+        <v>-20.83294631849591</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.053618877329839</v>
+        <v>-1.054941199916853</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.656267486083453</v>
+        <v>-0.6404257996449645</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.747125740955572</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.61748947398351</v>
+        <v>-21.66992414686462</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9053878245558166</v>
+        <v>-0.9085037926321474</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2814872249362025</v>
+        <v>-0.2632627393805199</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.822488088430147</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.27045498591175</v>
+        <v>-22.32642458056013</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6579956700585609</v>
+        <v>-0.6693074197138121</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08380111665079648</v>
+        <v>0.09380363602187521</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.955092236682625</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.89448650855978</v>
+        <v>-22.9458868895164</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3600672265922424</v>
+        <v>-0.3742200059641483</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4070893507215383</v>
+        <v>0.4218443760241636</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.147867822080226</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.5244750290008</v>
+        <v>-23.57571830232332</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0966893703252391</v>
+        <v>-0.1157255786571088</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3744371474342735</v>
+        <v>0.3902395569642368</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.395595767428365</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.0319326871461</v>
+        <v>-24.08214166854412</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01810394099101507</v>
+        <v>0.001594547107598501</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6467308619364922</v>
+        <v>0.6725881600489012</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.67874982879146</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.41284014602328</v>
+        <v>-24.45857155984943</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.000840621220962548</v>
+        <v>-0.01801772254930715</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5715941359278264</v>
+        <v>0.590918374922214</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.991578008162117</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.68100978513036</v>
+        <v>-24.72463333819899</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2861426570696728</v>
+        <v>0.266635125835501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5605966015407764</v>
+        <v>0.5797768252039052</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.316691401192819</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.69119559674122</v>
+        <v>-24.73115330501417</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3025604048331973</v>
+        <v>0.2864306877321908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067751354533369</v>
+        <v>0.432148018360602</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.629173282330495</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.65794114752324</v>
+        <v>-24.68944122816043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1204988415161547</v>
+        <v>0.1046309704719827</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3819783138711077</v>
+        <v>0.407770150469308</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.917792042188381</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.76334727770197</v>
+        <v>-24.78734546881086</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2392853051991353</v>
+        <v>0.2248968643760783</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0954663584827744</v>
+        <v>0.1220437332514783</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.160526469859755</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.80508553916139</v>
+        <v>-24.82740791550654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1975863206482378</v>
+        <v>0.1937633682184537</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.00619537308322851</v>
+        <v>0.0157080495709792</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.337104203057562</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.57471337835838</v>
+        <v>-24.59123586454464</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06430667771946637</v>
+        <v>0.05268071279601362</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2054078531229324</v>
+        <v>-0.1888329977253072</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.436803828860202</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.10799896665653</v>
+        <v>-24.12873717435783</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06700369210486194</v>
+        <v>0.05963272560497016</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.668168389366582</v>
+        <v>-0.6519601184485251</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.441590470846775</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.1885035368303</v>
+        <v>-24.20675420699167</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1317058527486722</v>
+        <v>0.124976409088025</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7340488572661475</v>
+        <v>-0.723705938021184</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.342927162394309</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.76551741661982</v>
+        <v>-23.78189588747482</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04816386831561813</v>
+        <v>0.04105474787256087</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.19751637786325</v>
+        <v>-1.187749519943323</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.141486459144343</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.20343867101884</v>
+        <v>-23.22255343316776</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1024368912727568</v>
+        <v>-0.1052779209894114</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.277261594472204</v>
+        <v>-1.273491011253787</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.836986557559552</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.8556154614227</v>
+        <v>-22.86940165631504</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2964517270842955</v>
+        <v>-0.3015184482840434</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.301940585328857</v>
+        <v>-1.300330232079325</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.44280930607085</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.12873080765007</v>
+        <v>-22.14081500317298</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4227531725984268</v>
+        <v>-0.4239576644598656</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.509597600701475</v>
+        <v>-1.510422415780503</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.974689006626834</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.32682725859435</v>
+        <v>-21.34726434333028</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3566370432477102</v>
+        <v>-0.35549801290048</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.625516850062117</v>
+        <v>-1.617294883877513</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.444411216933291</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.94986058287253</v>
+        <v>-20.96906699114134</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4180268512725637</v>
+        <v>-0.4229102802325275</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.873066112193474</v>
+        <v>-1.863168331245129</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.872767168755461</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.29318994924007</v>
+        <v>-20.30980408154623</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2655800769835054</v>
+        <v>-0.2646112465732177</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.031286592035733</v>
+        <v>-2.02838010080487</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.275212659570477</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97923652709548</v>
+        <v>-19.98871535435289</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5478370339482777</v>
+        <v>-0.5489891565983496</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.251996633341551</v>
+        <v>-2.245345743497955</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.661707976659471</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.45384241405701</v>
+        <v>-19.47204071500702</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2715370747764907</v>
+        <v>-0.2741686276476777</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.105585410662529</v>
+        <v>-2.108819209464435</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.051328948138564</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.89617577451369</v>
+        <v>-18.91341833735625</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01899964526243661</v>
+        <v>-0.02616113491686076</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.087439478923896</v>
+        <v>-2.097415813689292</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.454242929308724</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.00058370632258</v>
+        <v>-18.02401892840927</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02715614993283194</v>
+        <v>-0.03323097845139284</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.982818886915663</v>
+        <v>-1.995727897517605</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.878449126588423</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.66377112341634</v>
+        <v>-17.68437840808921</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02427041562946805</v>
+        <v>0.02084023228493582</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.189716548723461</v>
+        <v>-2.206160481092668</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.337242640275855</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.15289637422934</v>
+        <v>-17.1740928125301</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.008486526080530571</v>
+        <v>-0.01374963182290445</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.233654317060293</v>
+        <v>-2.253345140534249</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.8357598636385044</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.77619154456436</v>
+        <v>-16.79864484393792</v>
       </c>
       <c r="F46" t="n">
-        <v>0.009646313355260033</v>
+        <v>0.003545300231015685</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.184283243044144</v>
+        <v>-2.215325093081876</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.3811271055035341</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.11073597572511</v>
+        <v>-16.13770611957906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0233408621277055</v>
+        <v>0.0232884929163386</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.479606318244959</v>
+        <v>-2.512939321279994</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.01845327491437287</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.45380349603582</v>
+        <v>-15.47554981105592</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.004519558319487573</v>
+        <v>-0.00276518973869628</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.417103664478559</v>
+        <v>-2.452767097419421</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3611480123089957</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.92364378476296</v>
+        <v>-14.95087577467375</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1410406646748228</v>
+        <v>0.1371784353365137</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.611707653917975</v>
+        <v>-2.657674729195275</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6431605593603124</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.22662267377231</v>
+        <v>-14.25672187800543</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2868103645146009</v>
+        <v>0.2850952728423348</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.541074680086863</v>
+        <v>-2.600605381108192</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.8628281440274127</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.45336508333428</v>
+        <v>-13.47985081198309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2833278119587018</v>
+        <v>0.2808009975102486</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.61864657442409</v>
+        <v>-2.686936026046533</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.022879215592924</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86228688693888</v>
+        <v>-12.88561737060283</v>
       </c>
       <c r="F52" t="n">
-        <v>0.36485358175413</v>
+        <v>0.3610699062328712</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.631791246477183</v>
+        <v>-2.700146159613835</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.123105979772184</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.205485330278</v>
+        <v>-12.22329086214275</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4151542092720416</v>
+        <v>0.410113672677977</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.655671606860491</v>
+        <v>-2.728608825991747</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.166426014239699</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.83641331316974</v>
+        <v>-11.86280739569867</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3028091585871902</v>
+        <v>0.2964070224975861</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.765005427891746</v>
+        <v>-2.840390907654404</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.158051786849985</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.3772007909962</v>
+        <v>-11.3990387521362</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05601925002065376</v>
+        <v>0.05045502131292019</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.236969853033129</v>
+        <v>-3.316819808064816</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.101182623095072</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.93671026188633</v>
+        <v>-10.9637458672545</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1427295717414055</v>
+        <v>0.1335387751465138</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.308362180429061</v>
+        <v>-3.387636074135712</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.002016298837476</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.17845645050492</v>
+        <v>-10.20331873360136</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07993888731248729</v>
+        <v>0.07124559822558119</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.669303877472607</v>
+        <v>-3.743471773070985</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.8675024799716454</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.87426988628026</v>
+        <v>-9.895636524517956</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09083711095498755</v>
+        <v>-0.09390070981995144</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.705909956218073</v>
+        <v>-3.784673250113897</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.7045344279918988</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.331449918159455</v>
+        <v>-9.356534770404203</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.00576332708945155</v>
+        <v>-0.01435187775362385</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.986281621573637</v>
+        <v>-4.059087917676475</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.5213563503924935</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.96808614509019</v>
+        <v>-8.99683684213062</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1425909840883307</v>
+        <v>-0.1527506110935101</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.898497731019864</v>
+        <v>-3.972862011160867</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3260004828915598</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.432362205109602</v>
+        <v>-8.456425857732693</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1627269458589054</v>
+        <v>-0.1676758363330778</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.299423320942041</v>
+        <v>-4.37124769433175</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1270281421876032</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.928622760971349</v>
+        <v>-7.959023088169837</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1080142122833321</v>
+        <v>-0.11452108679567</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.261075965918625</v>
+        <v>-4.338268183473442</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06676698963045757</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.449156446301656</v>
+        <v>-7.481101665235468</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1612998848491572</v>
+        <v>-0.1660654830835455</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.262110257843122</v>
+        <v>-4.337325537668838</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2464656769791575</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.087101903516564</v>
+        <v>-7.112199848064153</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3180147498646183</v>
+        <v>-0.3209474257011649</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.509580966157428</v>
+        <v>-4.585804353301957</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4038977542010658</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.71881542457881</v>
+        <v>-6.746819860357261</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.265789553828973</v>
+        <v>-0.2716810901077497</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.792793661229646</v>
+        <v>-4.866987741433707</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5330594584021215</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.47093885487641</v>
+        <v>-6.501784320371517</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.381067280350371</v>
+        <v>-0.3845629252091119</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.782188895927848</v>
+        <v>-4.851093685783852</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6288005133254566</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.305753269922352</v>
+        <v>-6.335538258887279</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4358454754401529</v>
+        <v>-0.4376391209294694</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.893198531722843</v>
+        <v>-4.957769769338237</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6879194340565394</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.026900311696429</v>
+        <v>-6.054132301607219</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4015960112061975</v>
+        <v>-0.4025124724051183</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.888328195065721</v>
+        <v>-4.952087709904927</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7093690504872613</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.890570162205535</v>
+        <v>-5.91624416807816</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6566733474715465</v>
+        <v>-0.6545523944111868</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.98548617445417</v>
+        <v>-5.046941443993233</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6925000345848831</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.658561463547308</v>
+        <v>-5.68680156077691</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6058359355371241</v>
+        <v>-0.608519857619678</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.848632332849608</v>
+        <v>-4.906775249769713</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6397136657915269</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.5339620174026</v>
+        <v>-5.560120438480369</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7009253310765806</v>
+        <v>-0.7015799462186669</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.821177773790508</v>
+        <v>-4.87603452269734</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5552742426955491</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.516418331594688</v>
+        <v>-5.546713920370442</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7919430204322602</v>
+        <v>-0.7895078521036992</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.715391966829362</v>
+        <v>-4.764488102485834</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4444293154298496</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.554674040498211</v>
+        <v>-5.585951551987095</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8488290762795599</v>
+        <v>-0.846341538739632</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.52780545171311</v>
+        <v>-4.577412187180411</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3145286181614499</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.791343598968093</v>
+        <v>-5.822961510330861</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7428861616843127</v>
+        <v>-0.7421399004223342</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.420383106896748</v>
+        <v>-4.475933747854191</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1724801690520053</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.988395849038913</v>
+        <v>-6.016753776994091</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.067666918279011</v>
+        <v>-1.061919397331494</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.256127075444453</v>
+        <v>-4.312332331543983</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.02418813518886348</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.516185853497415</v>
+        <v>-6.544988919749213</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9800532276621804</v>
+        <v>-0.9736772761782597</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.092289997683093</v>
+        <v>-4.153313221228378</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1248470186594794</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.980988788984374</v>
+        <v>-7.007330502301927</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.03610137612761</v>
+        <v>-1.026962948744085</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.012741165616765</v>
+        <v>-4.070582959571511</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2707473543223929</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.559904236039817</v>
+        <v>-7.587018395225032</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.124683897154728</v>
+        <v>-1.113961301127355</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.617013219922753</v>
+        <v>-3.68214742656034</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.4105279321805362</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.985364801487389</v>
+        <v>-8.013487067991417</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.08608778837732</v>
+        <v>-1.071804085976997</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.41431818732715</v>
+        <v>-3.482817115795061</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.5417938631616269</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.456491319246902</v>
+        <v>-8.483906601397477</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.273124426774218</v>
+        <v>-1.25986192399555</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.04765515394177</v>
+        <v>-3.117424035785328</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.6625617595305048</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.398600339434669</v>
+        <v>-9.426735698241538</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.195434701711416</v>
+        <v>-1.182473321898107</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.031171944664036</v>
+        <v>-3.105667147833458</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.7697900862649184</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.21969720445636</v>
+        <v>-10.24492607203237</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.286020345073319</v>
+        <v>-1.270375043177456</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.856638455480986</v>
+        <v>-2.931081289439041</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.8597426543766797</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.05257714203561</v>
+        <v>-11.07451984159834</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.389829214305365</v>
+        <v>-1.368541129884718</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.483154332315067</v>
+        <v>-2.560137073024416</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.9265942571077436</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.26267250909066</v>
+        <v>-12.2796270412707</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.468867446560865</v>
+        <v>-1.451886729775146</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.376962663965827</v>
+        <v>-2.452112482277334</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.9643541635302714</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.14521155134858</v>
+        <v>-13.15662803942656</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.563511703803703</v>
+        <v>-1.543559034272912</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.037282866737244</v>
+        <v>-2.115692668456341</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.9669930714567305</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32857243600083</v>
+        <v>-14.3343068646455</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.766206736399306</v>
+        <v>-1.738019008381069</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.786120129021571</v>
+        <v>-1.859567947963654</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.9261032166382195</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42568122953179</v>
+        <v>-15.42710829054154</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.807670059499052</v>
+        <v>-1.780529715708154</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.374380296952128</v>
+        <v>-1.452148575831981</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.8352542347157839</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.8364161376363</v>
+        <v>-16.83343109258838</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.828683205560022</v>
+        <v>-1.799867047005383</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.063608304398076</v>
+        <v>-1.137383430911203</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6870533178996894</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.51419474680349</v>
+        <v>-18.49879819866162</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.055808475258286</v>
+        <v>-2.027908777902568</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8576009191835164</v>
+        <v>-0.9324757991353478</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.4716471183935265</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.12751994908087</v>
+        <v>-20.11157352421965</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.280760422684823</v>
+        <v>-2.254471078578637</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5626182438565864</v>
+        <v>-0.6317063259523749</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1851817093939993</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.95165741171572</v>
+        <v>-21.93315798780036</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.485903715911829</v>
+        <v>-2.454678573634312</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7145544183348175</v>
+        <v>-0.7734305042140596</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1786808949169499</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67027091344626</v>
+        <v>-23.64938869041371</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.588220062619918</v>
+        <v>-2.557885196935639</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5375857608232062</v>
+        <v>-0.5988708304253259</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.6254657921910275</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.74479866792912</v>
+        <v>-25.71879735448546</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.770622025810846</v>
+        <v>-2.747867603471926</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.5298743944494295</v>
+        <v>-0.5898895106759018</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.150106350910571</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.00869349071471</v>
+        <v>-27.97896087096115</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.640903489255024</v>
+        <v>-2.616028113855745</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6681814816694237</v>
+        <v>-0.731443489000644</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.751600377911221</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.28913698429224</v>
+        <v>-30.26009825658929</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.133488291372126</v>
+        <v>-3.112920283607774</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.040513482185271</v>
+        <v>-1.09382533935678</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.42835941149514</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.46914942277089</v>
+        <v>-32.43660195790636</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.193987822803742</v>
+        <v>-3.172974676742772</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.26251966147242</v>
+        <v>-1.309992351576519</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.156138028056443</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.69523367494958</v>
+        <v>-34.66437511715163</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.56230048634718</v>
+        <v>-3.536272988297828</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.491451668962842</v>
+        <v>-1.535965498624711</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.940615016582428</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.19955554712062</v>
+        <v>-37.16937778907045</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.809011841096666</v>
+        <v>-3.782814143110372</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.912172820781709</v>
+        <v>-1.948320668927715</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.740162155784319</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.72782324118918</v>
+        <v>-39.69297153102451</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.702139372999656</v>
+        <v>-3.672524583971672</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.387279398605107</v>
+        <v>-2.420546940125933</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.572861926434887</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.30169142605548</v>
+        <v>-42.27372626718555</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.889005811459612</v>
+        <v>-3.862546267416484</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.740300252429408</v>
+        <v>-2.76662887344412</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.362724336706713</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.55868660524348</v>
+        <v>-44.54182371918333</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.126866769488092</v>
+        <v>-4.09977879490856</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.342546183148808</v>
+        <v>-3.362525037285282</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.193971231633295</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86890199548309</v>
+        <v>-46.85705346141133</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.268158901755999</v>
+        <v>-4.23942129701841</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.613897251846422</v>
+        <v>-3.628338061880846</v>
       </c>
     </row>
   </sheetData>
